--- a/h_u.xlsx
+++ b/h_u.xlsx
@@ -4151,7 +4151,7 @@
     <t>110kV锡林变</t>
   </si>
   <si>
-    <t>110kV北郊</t>
+    <t>110kV新北郊</t>
   </si>
   <si>
     <t>110kV新店子</t>
@@ -4160,22 +4160,22 @@
     <t>通道长期故障</t>
   </si>
   <si>
-    <t>110kV东郊</t>
+    <t>110kV新东郊</t>
   </si>
   <si>
     <t>110kVⅤ母</t>
   </si>
   <si>
-    <t>110kV光明</t>
-  </si>
-  <si>
-    <t>110kV鸿盛</t>
-  </si>
-  <si>
-    <t>110kV南郊</t>
-  </si>
-  <si>
-    <t>110kV友谊</t>
+    <t>110kV新光明</t>
+  </si>
+  <si>
+    <t>110kV新鸿盛</t>
+  </si>
+  <si>
+    <t>110kV新南郊</t>
+  </si>
+  <si>
+    <t>110kV新友谊</t>
   </si>
   <si>
     <t>110kV鑫川变</t>
@@ -4184,7 +4184,7 @@
     <t>110kVⅢ母</t>
   </si>
   <si>
-    <t>110kV兴安变</t>
+    <t>110kV新兴安</t>
   </si>
   <si>
     <t>全站综自改造</t>
@@ -4289,17 +4289,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.000;[Red]0.000"/>
-    <numFmt numFmtId="181" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="182" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="181" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="182" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -4467,11 +4467,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4483,29 +4482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -4514,29 +4490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4574,6 +4527,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4582,10 +4567,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4648,7 +4648,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4660,13 +4750,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4678,109 +4798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4792,25 +4810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4822,13 +4822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4894,6 +4894,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4942,36 +4972,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4997,10 +4997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5009,138 +5009,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -5192,7 +5192,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5201,8 +5201,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5283,13 +5283,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="57" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="5" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5339,7 +5339,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5366,7 +5366,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="6" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="6" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5378,7 +5378,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5387,7 +5387,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="58" applyBorder="1" applyAlignment="1">
@@ -5405,13 +5405,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="5" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5453,7 +5453,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5522,7 +5522,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="58" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="20" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="20" fillId="0" borderId="1" xfId="58" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5595,7 +5595,7 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5604,21 +5604,21 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -5631,7 +5631,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5640,10 +5640,10 @@
     <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="7" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5652,40 +5652,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="7" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="7" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5698,7 +5698,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -43566,8 +43566,8 @@
   <sheetPr/>
   <dimension ref="A1:Q249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F260" sqref="F260"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
